--- a/bh3/507079863497477582_2021-03-28_11-28-51.xlsx
+++ b/bh3/507079863497477582_2021-03-28_11-28-51.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-01 11:57:40</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44317.49837962963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -619,10 +633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:59:47</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44308.45818287037</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44302.76394675926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>4355143678</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-02 23:22:12</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44288.97375</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:55:37</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44284.95528935185</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:21:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44284.93159722222</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:20:50</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44284.93113425926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:08:58</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44284.92289351852</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:08:30</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44284.92256944445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1186,10 +1184,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-29 20:20:48</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44284.84777777778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-29 19:24:44</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44284.8088425926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1341,10 +1335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:43:30</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44284.78020833333</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1408,10 +1400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-29 12:29:13</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44284.52028935185</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1483,10 +1473,8 @@
           <t>4332543220</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:33:16</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44284.48143518518</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1546,10 +1534,8 @@
           <t>4332251943</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:49:19</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44284.40924768519</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1621,10 +1607,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-29 09:46:40</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44284.40740740741</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1696,10 +1680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-29 08:38:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44284.36018518519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1771,10 +1753,8 @@
           <t>4331883308</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-29 06:36:31</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44284.27535879629</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1846,10 +1826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-29 06:36:06</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44284.27506944445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1921,10 +1899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-29 03:00:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44284.12515046296</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -2000,10 +1976,8 @@
           <t>4327929151</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:51:34</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44283.95247685185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2071,10 +2045,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:36:47</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44283.94221064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2138,10 +2110,8 @@
           <t>4327983184</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:29:05</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44283.93686342592</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2217,10 +2187,8 @@
           <t>4330727870</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:15:10</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44283.92719907407</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2292,10 +2260,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:31:47</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44283.8554050926</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2371,10 +2337,8 @@
           <t>4330210696</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:29:39</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44283.85392361111</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2450,10 +2414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:12:08</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44283.84175925926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2517,10 +2479,8 @@
           <t>4330106139</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:07:13</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44283.83834490741</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2584,10 +2544,8 @@
           <t>4330065520</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:57:30</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44283.83159722222</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2651,10 +2609,8 @@
           <t>4327983184</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:39:41</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44283.81922453704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2718,10 +2674,8 @@
           <t>4329849900</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:32:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44283.81431712963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2785,10 +2739,8 @@
           <t>4329849900</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:13:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44283.80077546297</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2852,10 +2804,8 @@
           <t>4329795075</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:59:20</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44283.7912037037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2931,10 +2881,8 @@
           <t>4328247315</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:31:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44283.77180555555</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2998,10 +2946,8 @@
           <t>4329640093</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:25:14</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44283.76752314815</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3073,10 +3019,8 @@
           <t>4327921051</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:22:29</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44283.76561342592</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3153,10 +3097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:16:35</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44283.7615162037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3224,10 +3166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:03:15</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44283.75225694444</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3303,10 +3243,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:51:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44283.74392361111</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3370,10 +3308,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:49:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44283.74237268518</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3437,10 +3373,8 @@
           <t>4328177598</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:31:12</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44283.73</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3508,10 +3442,8 @@
           <t>4328177598</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:30:13</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44283.72931712963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3579,10 +3511,8 @@
           <t>4329184011</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:03:16</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44283.71060185185</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3654,10 +3584,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:00:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44283.7087962963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3721,10 +3649,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:00:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44283.70857638889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3788,10 +3714,8 @@
           <t>4329184011</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:46:03</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44283.69864583333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3859,10 +3783,8 @@
           <t>4328177598</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:39:01</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44283.69376157408</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3926,10 +3848,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:37:18</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44283.69256944444</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3993,10 +3913,8 @@
           <t>4329070485</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:31:34</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44283.68858796296</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4068,10 +3986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:29:48</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44283.68736111111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4135,10 +4051,8 @@
           <t>4328922640</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:17:08</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44283.67856481481</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4210,10 +4124,8 @@
           <t>4329070485</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:15:57</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44283.67774305555</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4277,10 +4189,8 @@
           <t>4328350338</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:00:35</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44283.66707175926</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4365,10 +4275,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:56:06</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44283.66395833333</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4432,10 +4340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:49:51</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44283.65961805556</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4510,10 +4416,8 @@
           <t>4328944572</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:48:19</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44283.65855324074</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4581,10 +4485,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:47:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44283.65777777778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4660,10 +4562,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:45:49</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44283.65681712963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4735,10 +4635,8 @@
           <t>4328922640</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:41:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44283.65393518518</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4806,10 +4704,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:25</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44283.64265046296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4873,10 +4769,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:22:54</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44283.64090277778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4940,10 +4834,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:21:17</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44283.63978009259</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5007,10 +4899,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:15:38</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44283.63585648148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5078,10 +4968,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:12:35</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44283.63373842592</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5157,10 +5045,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:11:01</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44283.63265046296</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5236,10 +5122,8 @@
           <t>4327855758</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:04:52</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44283.62837962963</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5307,10 +5191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:55:56</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44283.62217592593</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5382,10 +5264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:54:16</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44283.62101851852</v>
       </c>
       <c r="I69" t="n">
         <v>16</v>
@@ -5457,10 +5337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:36:33</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44283.60871527778</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -5532,10 +5410,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:29:19</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44283.60369212963</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5607,10 +5483,8 @@
           <t>4328474626</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:26:41</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44283.60186342592</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5670,10 +5544,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:24:09</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44283.60010416667</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5746,10 +5618,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:12:16</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44283.59185185185</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5821,10 +5691,8 @@
           <t>4328474626</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:07:04</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44283.58824074074</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5896,10 +5764,8 @@
           <t>4328453756</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:01:22</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44283.58428240741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5967,10 +5833,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:58:47</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44283.58248842593</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6042,10 +5906,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:56:56</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44283.5812037037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6117,10 +5979,8 @@
           <t>4328453756</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:54:07</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44283.57924768519</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6192,10 +6052,8 @@
           <t>4328474626</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:52:51</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44283.57836805555</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6255,10 +6113,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:52:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44283.57836805555</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6330,10 +6186,8 @@
           <t>4327909094</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:51:32</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44283.57745370371</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6393,10 +6247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:49:27</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44283.57600694444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6456,10 +6308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:49:04</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44283.57574074074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6519,10 +6369,8 @@
           <t>4328453756</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:46:00</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44283.57361111111</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6586,10 +6434,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:45:52</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44283.57351851852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6665,10 +6511,8 @@
           <t>4328418062</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:45:29</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44283.57325231482</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6744,10 +6588,8 @@
           <t>4328403494</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:41:36</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44283.57055555555</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6819,10 +6661,8 @@
           <t>4328430744</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:40:22</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44283.56969907408</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6894,10 +6734,8 @@
           <t>4328418062</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:38:34</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44283.56844907408</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6969,10 +6807,8 @@
           <t>4328420783</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:37:25</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44283.56765046297</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7044,10 +6880,8 @@
           <t>4328403494</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:35:30</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44283.56631944444</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7119,10 +6953,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:33:14</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44283.56474537037</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7190,10 +7022,8 @@
           <t>4328179538</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:26</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44283.56418981482</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7265,10 +7095,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:29:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44283.56209490741</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7336,10 +7164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:27:31</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44283.56077546296</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7407,10 +7233,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:24:23</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44283.55859953703</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7474,10 +7298,8 @@
           <t>4328350338</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:23:38</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44283.5580787037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7541,10 +7363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:23:03</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44283.55767361111</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7616,10 +7436,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:19:55</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44283.55549768519</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7679,10 +7497,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:18:59</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44283.55484953704</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7754,10 +7570,8 @@
           <t>4327929151</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:14</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44283.55293981481</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7825,10 +7639,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:12</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44283.55083333333</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7888,10 +7700,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44283.5504050926</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -7951,10 +7761,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:31</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44283.5503587963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8022,10 +7830,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:12:04</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44283.5500462963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8097,10 +7903,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:09</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44283.54940972223</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8164,10 +7968,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:10:21</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44283.54885416666</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -8227,10 +8029,8 @@
           <t>4328247315</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:10:15</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44283.54878472222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8298,10 +8098,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:10:12</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44283.54875</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8373,10 +8171,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:09:30</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44283.54826388889</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8436,10 +8232,8 @@
           <t>4327997294</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:40</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44283.54768518519</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8511,10 +8305,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:16</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44283.54740740741</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8590,10 +8382,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:12</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44283.54736111111</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8653,10 +8443,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:38</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44283.54696759259</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8728,10 +8516,8 @@
           <t>4328247315</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:25</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44283.54681712963</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8799,10 +8585,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44283.54652777778</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -8862,10 +8646,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44283.54628472222</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8937,10 +8719,8 @@
           <t>4328177598</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:55</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44283.54577546296</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9008,10 +8788,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:43</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44283.54563657408</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9075,10 +8853,8 @@
           <t>4328254410</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:09</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44283.54524305555</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9154,10 +8930,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:52</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44283.54435185185</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9217,10 +8991,8 @@
           <t>4328247315</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:11</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44283.54387731481</v>
       </c>
       <c r="I123" t="n">
         <v>4</v>
@@ -9296,10 +9068,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:31</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44283.5427199074</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9371,10 +9141,8 @@
           <t>4328237939</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:20</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44283.5425925926</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9446,10 +9214,8 @@
           <t>4328233772</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:01</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44283.54237268519</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9513,10 +9279,8 @@
           <t>4328189303</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:34</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44283.54206018519</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9592,10 +9356,8 @@
           <t>4328189303</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:59:44</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44283.54148148148</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9671,10 +9433,8 @@
           <t>4328189303</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:58:44</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44283.54078703704</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9750,10 +9510,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:58:33</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44283.54065972222</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9829,10 +9587,8 @@
           <t>4328189303</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:57:39</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44283.54003472222</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9908,10 +9664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:56:06</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44283.53895833333</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -9971,10 +9725,8 @@
           <t>4328208253</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:55:41</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44283.53866898148</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -10047,10 +9799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:55:40</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44283.53865740741</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10118,10 +9868,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:54:24</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44283.53777777778</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10189,10 +9937,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:53:50</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44283.53738425926</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10256,10 +10002,8 @@
           <t>4328189303</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:52:28</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44283.53643518518</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10335,10 +10079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:51:05</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44283.53547453704</v>
       </c>
       <c r="I138" t="n">
         <v>6</v>
@@ -10406,10 +10148,8 @@
           <t>4327909094</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:50:54</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44283.53534722222</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10481,10 +10221,8 @@
           <t>4328179538</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:50:37</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44283.53515046297</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10560,10 +10298,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:49:41</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44283.53450231482</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10627,10 +10363,8 @@
           <t>4328177598</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:49:30</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44283.534375</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10694,10 +10428,8 @@
           <t>4328158122</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:45:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44283.531875</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10773,10 +10505,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:13</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44283.53070601852</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10852,10 +10582,8 @@
           <t>4328151743</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:27</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44283.53017361111</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -10927,10 +10655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:03</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44283.52989583334</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11002,10 +10728,8 @@
           <t>4328145793</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:42:48</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44283.52972222222</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11073,10 +10797,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:42:43</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44283.52966435185</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11148,10 +10870,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:41:54</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44283.52909722222</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11223,10 +10943,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:49</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44283.5283449074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11302,10 +11020,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:58</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44283.52775462963</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11377,10 +11093,8 @@
           <t>4327953822</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:38:58</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44283.52706018519</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11456,10 +11170,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:38:51</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44283.52697916667</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11533,10 +11245,8 @@
           <t>4327877227</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:38:40</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44283.52685185185</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11600,10 +11310,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:53</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44283.52422453704</v>
       </c>
       <c r="I155" t="n">
         <v>4</v>
@@ -11675,10 +11383,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:36</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44283.52402777778</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11750,10 +11456,8 @@
           <t>4328105011</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:03</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44283.52364583333</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11829,10 +11533,8 @@
           <t>4327950579</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:58</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44283.52219907408</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11904,10 +11606,8 @@
           <t>4327992800</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:46</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44283.52206018518</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11979,10 +11679,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44283.52155092593</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12058,10 +11756,8 @@
           <t>4327950579</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:30:03</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44283.52086805556</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12125,10 +11821,8 @@
           <t>4328071434</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:03</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44283.52017361111</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12204,10 +11898,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:00</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44283.52013888889</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12283,10 +11975,8 @@
           <t>4327903191</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:11</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44283.51957175926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12350,10 +12040,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:55</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44283.51938657407</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12421,10 +12109,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:46</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44283.5192824074</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12496,10 +12182,8 @@
           <t>4328058780</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:35</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44283.5191550926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12563,10 +12247,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:28</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44283.51837962963</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12630,10 +12312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:21</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44283.51829861111</v>
       </c>
       <c r="I169" t="n">
         <v>4</v>
@@ -12709,10 +12389,8 @@
           <t>4327987542</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:20</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44283.51828703703</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12780,10 +12458,8 @@
           <t>4327983184</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44283.51822916666</v>
       </c>
       <c r="I171" t="n">
         <v>4</v>
@@ -12855,10 +12531,8 @@
           <t>4328060888</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:10</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44283.51817129629</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12934,10 +12608,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:37</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44283.51778935185</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -13005,10 +12677,8 @@
           <t>4328049243</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:13</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44283.51751157407</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13080,10 +12750,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:46</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44283.51581018518</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13159,10 +12827,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:40</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44283.51574074074</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13238,10 +12904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:58</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44283.51525462963</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13309,10 +12973,8 @@
           <t>4327987542</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:31</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44283.51494212963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13388,10 +13050,8 @@
           <t>4327990768</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:18</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44283.51479166667</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13463,10 +13123,8 @@
           <t>4328031262</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:39</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44283.51434027778</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13538,10 +13196,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:34</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44283.51428240741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13617,10 +13273,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:15</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44283.5140625</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13684,10 +13338,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:03</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44283.51392361111</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13763,10 +13415,8 @@
           <t>4328001716</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:59</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44283.51387731481</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13838,10 +13488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:53</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44283.51380787037</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13917,10 +13565,8 @@
           <t>4328013649</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:02</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44283.51321759259</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13996,10 +13642,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:18:43</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44283.51299768518</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14067,10 +13711,8 @@
           <t>4327971787</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:18:30</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44283.51284722222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14146,10 +13788,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:18:27</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44283.5128125</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14225,10 +13865,8 @@
           <t>4328017165</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:18:17</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44283.51269675926</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14292,10 +13930,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:43</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44283.5116087963</v>
       </c>
       <c r="I191" t="n">
         <v>4</v>
@@ -14363,10 +13999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:40</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44283.51157407407</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14430,10 +14064,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:25</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44283.51140046296</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14497,10 +14129,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:20</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44283.5113425926</v>
       </c>
       <c r="I194" t="n">
         <v>6</v>
@@ -14568,10 +14198,8 @@
           <t>4328003575</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:14</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44283.51127314815</v>
       </c>
       <c r="I195" t="n">
         <v>6</v>
@@ -14639,10 +14267,8 @@
           <t>4327992800</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:45</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44283.5109375</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14714,10 +14340,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:35</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44283.51082175926</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14793,10 +14417,8 @@
           <t>4327877227</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:30</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44283.51076388889</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14860,10 +14482,8 @@
           <t>4327997294</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:23</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44283.51068287037</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -14931,10 +14551,8 @@
           <t>4327877227</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:15</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44283.51059027778</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14998,10 +14616,8 @@
           <t>4328001716</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:11</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44283.51054398148</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15073,10 +14689,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:01</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44283.51042824074</v>
       </c>
       <c r="I202" t="n">
         <v>5</v>
@@ -15144,10 +14758,8 @@
           <t>4328001249</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:55</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44283.51035879629</v>
       </c>
       <c r="I203" t="n">
         <v>21</v>
@@ -15219,10 +14831,8 @@
           <t>4328000138</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:44</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44283.51023148148</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15291,10 +14901,8 @@
           <t>4328000138</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:18</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44283.50993055556</v>
       </c>
       <c r="I205" t="n">
         <v>26</v>
@@ -15370,10 +14978,8 @@
           <t>4327984705</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:54</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44283.50965277778</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15437,10 +15043,8 @@
           <t>4327992800</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:37</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44283.50945601852</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15512,10 +15116,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:32</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44283.50939814815</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15591,10 +15193,8 @@
           <t>4327983995</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:31</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44283.50938657407</v>
       </c>
       <c r="I209" t="n">
         <v>40</v>
@@ -15670,10 +15270,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:22</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44283.50928240741</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15746,10 +15344,8 @@
           <t>4327983184</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:04</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44283.50907407407</v>
       </c>
       <c r="I211" t="n">
         <v>59</v>
@@ -15821,10 +15417,8 @@
           <t>4327987542</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:48</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44283.50888888889</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15896,10 +15490,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:31</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44283.50869212963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15967,10 +15559,8 @@
           <t>4327990768</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:27</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44283.50864583333</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16038,10 +15628,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:21</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44283.50857638889</v>
       </c>
       <c r="I215" t="n">
         <v>4</v>
@@ -16109,10 +15697,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:31</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44283.50799768518</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16188,10 +15774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:07</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44283.50771990741</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16255,10 +15839,8 @@
           <t>4327908678</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:10:49</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44283.50751157408</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16334,10 +15916,8 @@
           <t>4327908678</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:41</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44283.50672453704</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16409,10 +15989,8 @@
           <t>4327971787</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:32</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44283.50662037037</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16484,10 +16062,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:26</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44283.50655092593</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16563,10 +16139,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:57</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44283.50621527778</v>
       </c>
       <c r="I222" t="n">
         <v>6</v>
@@ -16630,10 +16204,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:57</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44283.50621527778</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16701,10 +16273,8 @@
           <t>4327855758</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:56</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44283.50620370371</v>
       </c>
       <c r="I224" t="n">
         <v>14</v>
@@ -16780,10 +16350,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:56</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44283.50620370371</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16851,10 +16419,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:12</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44283.50569444444</v>
       </c>
       <c r="I226" t="n">
         <v>9</v>
@@ -16930,10 +16496,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:10</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44283.5056712963</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17001,10 +16565,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:04</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44283.50560185185</v>
       </c>
       <c r="I228" t="n">
         <v>7</v>
@@ -17072,10 +16634,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:03</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44283.50559027777</v>
       </c>
       <c r="I229" t="n">
         <v>6</v>
@@ -17143,10 +16703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:58</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44283.50553240741</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17206,10 +16764,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44283.50546296296</v>
       </c>
       <c r="I231" t="n">
         <v>27</v>
@@ -17277,10 +16833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:34</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44283.50525462963</v>
       </c>
       <c r="I232" t="n">
         <v>6</v>
@@ -17352,10 +16906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:26</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44283.50516203704</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17428,10 +16980,8 @@
           <t>4327961561</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:06</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44283.50493055556</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17503,10 +17053,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:54</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44283.50479166667</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17582,10 +17130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:50</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44283.50474537037</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17661,10 +17207,8 @@
           <t>4327951967</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:42</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44283.50465277778</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17724,10 +17268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:41</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44283.5046412037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17795,10 +17337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:33</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44283.50454861111</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17862,10 +17402,8 @@
           <t>4327956226</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:28</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44283.50449074074</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -17937,10 +17475,8 @@
           <t>4327855758</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:14</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44283.5043287037</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -18000,10 +17536,8 @@
           <t>4327921051</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:09</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44283.50427083333</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18079,10 +17613,8 @@
           <t>4327920358</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:07</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44283.50424768519</v>
       </c>
       <c r="I243" t="n">
         <v>13</v>
@@ -18158,10 +17690,8 @@
           <t>4327955495</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:06:05</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44283.50422453704</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18237,10 +17767,8 @@
           <t>4327950579</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:56</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44283.50412037037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18312,10 +17840,8 @@
           <t>4327950331</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:47</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44283.5040162037</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18391,10 +17917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:31</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44283.50383101852</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18470,10 +17994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:05:30</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44283.50381944444</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18537,10 +18059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:04:00</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44283.50277777778</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18616,10 +18136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:57</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44283.50274305556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18687,10 +18205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:45</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44283.50260416666</v>
       </c>
       <c r="I251" t="n">
         <v>8</v>
@@ -18768,10 +18284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:16</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44283.50226851852</v>
       </c>
       <c r="I252" t="n">
         <v>92</v>
@@ -18835,10 +18349,8 @@
           <t>4327903191</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:03:13</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44283.50223379629</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -18914,10 +18426,8 @@
           <t>4327920358</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:53</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44283.50200231482</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18989,10 +18499,8 @@
           <t>4327929151</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:39</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44283.50184027778</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19060,10 +18568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:34</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44283.50178240741</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19131,10 +18637,8 @@
           <t>4327903191</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:33</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44283.50177083333</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19210,10 +18714,8 @@
           <t>4327933605</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:33</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44283.50177083333</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19289,10 +18791,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:02:11</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44283.5015162037</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19368,10 +18868,8 @@
           <t>4327927771</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:55</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44283.50133101852</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19443,10 +18941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:51</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44283.50128472222</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19514,10 +19010,8 @@
           <t>4327923017</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:39</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44283.50114583333</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19581,10 +19075,8 @@
           <t>4327877227</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:33</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44283.50107638889</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19648,10 +19140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:32</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44283.50106481482</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19719,10 +19209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:11</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44283.50082175926</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19794,10 +19282,8 @@
           <t>4327926273</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:08</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44283.50078703704</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19861,10 +19347,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:08</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44283.50078703704</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19928,10 +19412,8 @@
           <t>4327921959</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:01:05</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44283.50075231482</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20008,10 +19490,8 @@
           <t>4327921051</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:37</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44283.50042824074</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20088,10 +19568,8 @@
           <t>4327914781</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:24</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44283.50027777778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20168,10 +19646,8 @@
           <t>4327920358</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:14</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44283.50016203704</v>
       </c>
       <c r="I271" t="n">
         <v>217</v>
@@ -20247,10 +19723,8 @@
           <t>4327903191</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:14</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44283.50016203704</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20326,10 +19800,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:14</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44283.50016203704</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20393,10 +19865,8 @@
           <t>4327898955</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:11</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44283.50012731482</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20464,10 +19934,8 @@
           <t>4327920167</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:08</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44283.50009259259</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20543,10 +20011,8 @@
           <t>4327914359</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:00:08</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44283.50009259259</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20610,10 +20076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:46</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44283.49983796296</v>
       </c>
       <c r="I277" t="n">
         <v>298</v>
@@ -20677,10 +20141,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:42</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44283.49979166667</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20752,10 +20214,8 @@
           <t>4327909196</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:34</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44283.49969907408</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20827,10 +20287,8 @@
           <t>4327909122</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:32</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44283.49967592592</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20902,10 +20360,8 @@
           <t>4327909094</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:31</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44283.49966435185</v>
       </c>
       <c r="I281" t="n">
         <v>7</v>
@@ -20981,10 +20437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:27</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44283.49961805555</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21061,10 +20515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:22</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44283.49956018518</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21132,10 +20584,8 @@
           <t>4327908678</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:59:16</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44283.49949074074</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21211,10 +20661,8 @@
           <t>4327903191</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:58:52</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44283.49921296296</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21290,10 +20738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:58:38</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44283.49905092592</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21369,10 +20815,8 @@
           <t>4327911209</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:58:07</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44283.49869212963</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21448,10 +20892,8 @@
           <t>4327906618</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:58:03</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44283.49864583334</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21519,10 +20961,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:51</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44283.49850694444</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21590,10 +21030,8 @@
           <t>4327824638</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:47</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44283.49846064814</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21669,10 +21107,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:44</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44283.49842592593</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21744,10 +21180,8 @@
           <t>4327915241</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:37</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44283.49834490741</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21823,10 +21257,8 @@
           <t>4327904872</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:25</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44283.49820601852</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21898,10 +21330,8 @@
           <t>4327899968</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:20</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44283.49814814814</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21974,10 +21404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:11</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44283.49804398148</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22049,10 +21477,8 @@
           <t>4327904433</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:57:08</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44283.49800925926</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22128,10 +21554,8 @@
           <t>4327894226</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:56:38</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44283.49766203704</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22195,10 +21619,8 @@
           <t>4327903482</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:56:33</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44283.49760416667</v>
       </c>
       <c r="I298" t="n">
         <v>7</v>
@@ -22262,10 +21684,8 @@
           <t>4327893977</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:56:28</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44283.4975462963</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22341,10 +21761,8 @@
           <t>4327878558</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:56:27</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44283.49753472222</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22408,10 +21826,8 @@
           <t>4327898438</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:56:23</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44283.49748842593</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22483,10 +21899,8 @@
           <t>4327903191</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:56:23</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44283.49748842593</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22562,10 +21976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:52</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44283.49712962963</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22641,10 +22053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44283.49701388889</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22708,10 +22118,8 @@
           <t>4327815009</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:39</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44283.49697916667</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22787,10 +22195,8 @@
           <t>4327901762</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:30</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44283.496875</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22854,10 +22260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:25</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44283.49681712963</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22933,10 +22337,8 @@
           <t>4327896763</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44283.49673611111</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23012,10 +22414,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:11</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44283.49665509259</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23087,10 +22487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:55:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44283.49657407407</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23158,10 +22556,8 @@
           <t>4327815009</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:54:56</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44283.49648148148</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23237,10 +22633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:54:48</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44283.49638888889</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23312,10 +22706,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:54:44</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44283.4963425926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23391,10 +22783,8 @@
           <t>4327878558</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:54:36</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44283.49625</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23462,10 +22852,8 @@
           <t>4327895663</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:54:34</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44283.49622685185</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23533,10 +22921,8 @@
           <t>4327900033</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:54:26</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44283.49613425926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23613,10 +22999,8 @@
           <t>4327884286</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:43</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44283.49563657407</v>
       </c>
       <c r="I317" t="n">
         <v>6</v>
@@ -23680,10 +23064,8 @@
           <t>4327803362</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:33</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44283.49552083333</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23755,10 +23137,8 @@
           <t>4327815009</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:32</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44283.49550925926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23834,10 +23214,8 @@
           <t>4327879147</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:28</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44283.49546296296</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23913,10 +23291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:26</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44283.49543981482</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23984,10 +23360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:09</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44283.49524305556</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24063,10 +23437,8 @@
           <t>4327878558</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:53:06</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44283.49520833333</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -24142,10 +23514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:52:58</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44283.49511574074</v>
       </c>
       <c r="I324" t="n">
         <v>24</v>
@@ -24213,10 +23583,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:52:57</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44283.49510416666</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24292,10 +23660,8 @@
           <t>4327883008</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:52:55</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44283.49508101852</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24371,10 +23737,8 @@
           <t>4327886645</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:52:20</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44283.49467592593</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24438,10 +23802,8 @@
           <t>4327877227</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:52:17</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44283.4946412037</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24509,10 +23871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:48</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44283.49430555556</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24580,10 +23940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:48</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44283.49430555556</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24651,10 +24009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:46</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44283.49428240741</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24730,10 +24086,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:37</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44283.49417824074</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24809,10 +24163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:36</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44283.49416666666</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24888,10 +24240,8 @@
           <t>4327880801</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:36</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44283.49416666666</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24955,10 +24305,8 @@
           <t>4327880801</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:30</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44283.49409722222</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25022,10 +24370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:26</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44283.49405092592</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25097,10 +24443,8 @@
           <t>4327875721</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:20</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44283.49398148148</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25176,10 +24520,8 @@
           <t>4327875522</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:12</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44283.49388888889</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25251,10 +24593,8 @@
           <t>4327874567</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:51:04</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44283.49379629629</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25318,10 +24658,8 @@
           <t>4327785316</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:50:54</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44283.49368055556</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25385,10 +24723,8 @@
           <t>4327864890</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:50:48</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44283.49361111111</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25460,10 +24796,8 @@
           <t>4327873637</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:50:40</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44283.49351851852</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25527,10 +24861,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:50:32</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44283.49342592592</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25598,10 +24930,8 @@
           <t>4327873637</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:50:28</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44283.49337962963</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25665,10 +24995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:50:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44283.49318287037</v>
       </c>
       <c r="I345" t="n">
         <v>52</v>
@@ -25740,10 +25068,8 @@
           <t>4327863376</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:49:48</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44283.49291666667</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25807,10 +25133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:49:46</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44283.49289351852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25878,10 +25202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:49:41</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44283.49283564815</v>
       </c>
       <c r="I348" t="n">
         <v>658</v>
@@ -25957,10 +25279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:49:37</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44283.49278935185</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26024,10 +25344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:49:05</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44283.49241898148</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26091,10 +25409,8 @@
           <t>4327862204</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:49:04</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44283.49240740741</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -26166,10 +25482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:48:42</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44283.49215277778</v>
       </c>
       <c r="I352" t="n">
         <v>17</v>
@@ -26245,10 +25559,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:48:36</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44283.49208333333</v>
       </c>
       <c r="I353" t="n">
         <v>13</v>
@@ -26316,10 +25628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:48:21</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44283.49190972222</v>
       </c>
       <c r="I354" t="n">
         <v>503</v>
@@ -26387,10 +25697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:58</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44283.49164351852</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26466,10 +25774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:55</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44283.4916087963</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26545,10 +25851,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:54</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44283.49159722222</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26635,10 +25939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:41</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44283.49144675926</v>
       </c>
       <c r="I358" t="n">
         <v>4</v>
@@ -26710,10 +26012,8 @@
           <t>4327859154</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:39</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44283.49142361111</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26777,10 +26077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:33</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44283.49135416667</v>
       </c>
       <c r="I360" t="n">
         <v>5</v>
@@ -26853,10 +26151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:32</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44283.49134259259</v>
       </c>
       <c r="I361" t="n">
         <v>8</v>
@@ -26920,10 +26216,8 @@
           <t>4327854581</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:26</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44283.49127314815</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26995,10 +26289,8 @@
           <t>4327849488</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:23</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44283.49123842592</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27062,10 +26354,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:17</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44283.49116898148</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27137,10 +26427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:47:11</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44283.49109953704</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -27212,10 +26500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:46:31</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44283.49063657408</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27291,10 +26577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:46:30</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44283.490625</v>
       </c>
       <c r="I367" t="n">
         <v>14</v>
@@ -27362,10 +26646,8 @@
           <t>4327792082</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:46:29</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44283.49061342593</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27437,10 +26719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:46:19</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44283.49049768518</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27516,10 +26796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:46:15</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44283.49045138889</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27591,10 +26869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:46:12</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44283.49041666667</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27662,10 +26938,8 @@
           <t>4327855758</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:45:30</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44283.48993055556</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27733,10 +27007,8 @@
           <t>4327836604</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:45:18</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44283.48979166667</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27800,10 +27072,8 @@
           <t>4327807286</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:45:10</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44283.48969907407</v>
       </c>
       <c r="I374" t="n">
         <v>14</v>
@@ -27871,10 +27141,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:45:01</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44283.48959490741</v>
       </c>
       <c r="I375" t="n">
         <v>8</v>
@@ -27942,10 +27210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:44:46</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44283.4894212963</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28009,10 +27275,8 @@
           <t>4327845432</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:44:46</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44283.4894212963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28084,10 +27348,8 @@
           <t>4327834898</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:44:25</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44283.48917824074</v>
       </c>
       <c r="I378" t="n">
         <v>8</v>
@@ -28159,10 +27421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:43:56</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44283.48884259259</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28230,10 +27490,8 @@
           <t>4327836604</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:43:44</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44283.4887037037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28297,10 +27555,8 @@
           <t>4327833766</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:43:42</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44283.48868055556</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28364,10 +27620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:43:35</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44283.48859953704</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28443,10 +27697,8 @@
           <t>4327842461</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:43:30</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44283.48854166667</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28514,10 +27766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:43:10</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44283.48831018519</v>
       </c>
       <c r="I384" t="n">
         <v>17</v>
@@ -28593,10 +27843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:42:38</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44283.48793981481</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28664,10 +27912,8 @@
           <t>4327836604</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:42:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44283.48784722222</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28731,10 +27977,8 @@
           <t>4327824638</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:42:09</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44283.48760416666</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -28810,10 +28054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:42:08</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44283.4875925926</v>
       </c>
       <c r="I388" t="n">
         <v>209</v>
@@ -28881,10 +28123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:49</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44283.48737268519</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28960,10 +28200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:46</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44283.48733796296</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -29039,10 +28277,8 @@
           <t>4327835180</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:40</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44283.48726851852</v>
       </c>
       <c r="I391" t="n">
         <v>27</v>
@@ -29118,10 +28354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:38</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44283.48724537037</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29197,10 +28431,8 @@
           <t>4327830476</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:38</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44283.48724537037</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29268,10 +28500,8 @@
           <t>4327829199</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:29</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44283.4871412037</v>
       </c>
       <c r="I394" t="n">
         <v>5</v>
@@ -29347,10 +28577,8 @@
           <t>4327803362</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:24</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44283.48708333333</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29426,10 +28654,8 @@
           <t>4327829002</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:21</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44283.48704861111</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29493,10 +28719,8 @@
           <t>4327824638</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:18</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44283.48701388889</v>
       </c>
       <c r="I397" t="n">
         <v>15</v>
@@ -29556,10 +28780,8 @@
           <t>4327792082</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:17</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44283.48700231482</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29635,10 +28857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:41:05</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44283.48686342593</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29710,10 +28930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:50</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44283.48668981482</v>
       </c>
       <c r="I400" t="n">
         <v>5</v>
@@ -29785,10 +29003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:35</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44283.4865162037</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29860,10 +29076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:34</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44283.48650462963</v>
       </c>
       <c r="I402" t="n">
         <v>4</v>
@@ -29935,10 +29149,8 @@
           <t>4327823110</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:23</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44283.48637731482</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30002,10 +29214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:22</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44283.48636574074</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30077,10 +29287,8 @@
           <t>4327815009</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:19</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44283.48633101852</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30156,10 +29364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:09</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44283.48621527778</v>
       </c>
       <c r="I406" t="n">
         <v>31</v>
@@ -30223,10 +29429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:40:05</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44283.48616898148</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30298,10 +29502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:59</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44283.48609953704</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30377,10 +29579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:59</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44283.48609953704</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30448,10 +29648,8 @@
           <t>4327803362</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:55</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44283.48605324074</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30519,10 +29717,8 @@
           <t>4327803362</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:41</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44283.4858912037</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30590,10 +29786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:35</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44283.48582175926</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30665,10 +29859,8 @@
           <t>4327816991</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:24</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44283.48569444445</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30744,10 +29936,8 @@
           <t>4327816732</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:14</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44283.4855787037</v>
       </c>
       <c r="I414" t="n">
         <v>4</v>
@@ -30819,10 +30009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:39:04</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44283.48546296296</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30886,10 +30074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:57</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44283.48538194445</v>
       </c>
       <c r="I416" t="n">
         <v>22</v>
@@ -30949,10 +30135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:57</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44283.48538194445</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31016,10 +30200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:56</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44283.48537037037</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31091,10 +30273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:54</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44283.48534722222</v>
       </c>
       <c r="I419" t="n">
         <v>2</v>
@@ -31166,10 +30346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:52</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44283.48532407408</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31237,10 +30415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:43</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44283.48521990741</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31312,10 +30488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:41</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44283.48519675926</v>
       </c>
       <c r="I422" t="n">
         <v>4</v>
@@ -31379,10 +30553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:34</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44283.48511574074</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31450,10 +30622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:34</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44283.48511574074</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31529,10 +30699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:31</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44283.48508101852</v>
       </c>
       <c r="I425" t="n">
         <v>14</v>
@@ -31596,10 +30764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44283.48501157408</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31663,10 +30829,8 @@
           <t>4327803362</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:18</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44283.48493055555</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31742,10 +30906,8 @@
           <t>4327815009</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:09</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44283.48482638889</v>
       </c>
       <c r="I428" t="n">
         <v>23</v>
@@ -31813,10 +30975,8 @@
           <t>4327813791</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:08</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44283.48481481482</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31892,10 +31052,8 @@
           <t>4327792082</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:07</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44283.48480324074</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31967,10 +31125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:00</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44283.48472222222</v>
       </c>
       <c r="I431" t="n">
         <v>5</v>
@@ -32046,10 +31202,8 @@
           <t>4327804776</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:38:00</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44283.48472222222</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32121,10 +31275,8 @@
           <t>4327804495</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:49</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44283.48459490741</v>
       </c>
       <c r="I433" t="n">
         <v>12</v>
@@ -32196,10 +31348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:46</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44283.48456018518</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32264,10 +31414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:43</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44283.48452546296</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32336,10 +31484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:37</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44283.48445601852</v>
       </c>
       <c r="I436" t="n">
         <v>25</v>
@@ -32411,10 +31557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:32</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44283.48439814815</v>
       </c>
       <c r="I437" t="n">
         <v>10</v>
@@ -32478,10 +31622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:30</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44283.484375</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32549,10 +31691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:26</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44283.4843287037</v>
       </c>
       <c r="I439" t="n">
         <v>192</v>
@@ -32620,10 +31760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:23</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44283.48429398148</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32699,10 +31837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:21</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44283.48427083333</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32778,10 +31914,8 @@
           <t>4327796088</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:13</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44283.48417824074</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32857,10 +31991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:12</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44283.48416666667</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32928,10 +32060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:08</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44283.48412037037</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32999,10 +32129,8 @@
           <t>4327803362</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:37:05</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44283.48408564815</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33070,10 +32198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:57</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44283.48399305555</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33141,10 +32267,8 @@
           <t>4327803160</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:57</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44283.48399305555</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33216,10 +32340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:51</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44283.48392361111</v>
       </c>
       <c r="I448" t="n">
         <v>266</v>
@@ -33295,10 +32417,8 @@
           <t>4327807286</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:45</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44283.48385416667</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33374,10 +32494,8 @@
           <t>4327807253</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:44</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44283.48384259259</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33449,10 +32567,8 @@
           <t>4327792348</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:41</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44283.48380787037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33524,10 +32640,8 @@
           <t>4327802681</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:39</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44283.48378472222</v>
       </c>
       <c r="I452" t="n">
         <v>6</v>
@@ -33595,10 +32709,8 @@
           <t>4327806915</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:32</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44283.48370370371</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33666,10 +32778,8 @@
           <t>4327792082</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:25</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44283.48362268518</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33745,10 +32855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:24</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44283.48361111111</v>
       </c>
       <c r="I455" t="n">
         <v>16</v>
@@ -33817,10 +32925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:21</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44283.48357638889</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33893,10 +32999,8 @@
           <t>4327801219</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:21</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44283.48357638889</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33964,10 +33068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:20</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44283.48356481481</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34039,10 +33141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:36:11</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44283.48346064815</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34110,10 +33210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:57</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44283.48329861111</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34189,10 +33287,8 @@
           <t>4327801506</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:53</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44283.48325231481</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34260,10 +33356,8 @@
           <t>4327801219</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:42</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44283.483125</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34339,10 +33433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:34</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44283.48303240741</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34414,10 +33506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:27</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44283.48295138889</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34494,10 +33584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:22</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44283.48289351852</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34565,10 +33653,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:17</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44283.48283564814</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34636,10 +33722,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:14</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44283.48280092593</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34703,10 +33787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:11</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44283.48276620371</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34770,10 +33852,8 @@
           <t>4327800133</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:01</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44283.48265046296</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -34837,10 +33917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:35:00</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44283.48263888889</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34908,10 +33986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:56</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44283.48259259259</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34979,10 +34055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:49</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44283.48251157408</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35050,10 +34124,8 @@
           <t>4327785316</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:42</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44283.48243055555</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35125,10 +34197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:32</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44283.48231481481</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35192,10 +34262,8 @@
           <t>4327796088</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:31</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44283.48230324074</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35271,10 +34339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:30</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44283.48229166667</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35342,10 +34408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:26</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44283.48224537037</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35413,10 +34477,8 @@
           <t>4327797547</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:14</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44283.48210648148</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35480,10 +34542,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:12</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44283.48208333334</v>
       </c>
       <c r="I479" t="n">
         <v>3</v>
@@ -35559,10 +34619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:11</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44283.48207175926</v>
       </c>
       <c r="I480" t="n">
         <v>200</v>
@@ -35638,10 +34696,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:11</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44283.48207175926</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35713,10 +34769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:09</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44283.48204861111</v>
       </c>
       <c r="I482" t="n">
         <v>2</v>
@@ -35792,10 +34846,8 @@
           <t>4327785316</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:09</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44283.48204861111</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35863,10 +34915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:01</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44283.48195601852</v>
       </c>
       <c r="I484" t="n">
         <v>14</v>
@@ -35934,10 +34984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:34:00</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44283.48194444444</v>
       </c>
       <c r="I485" t="n">
         <v>11</v>
@@ -36013,10 +35061,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:57</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44283.48190972222</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36092,10 +35138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:53</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44283.48186342593</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36163,10 +35207,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:51</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44283.48184027777</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36230,10 +35272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:45</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44283.48177083334</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36301,10 +35341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:41</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44283.48172453704</v>
       </c>
       <c r="I490" t="n">
         <v>33</v>
@@ -36380,10 +35418,8 @@
           <t>4327792348</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:38</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44283.48168981481</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36451,10 +35487,8 @@
           <t>4327792082</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:28</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44283.48157407407</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36526,10 +35560,8 @@
           <t>4327796088</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:20</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44283.48148148148</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36605,10 +35637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:17</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44283.48144675926</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36672,10 +35702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:07</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44283.48133101852</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36747,10 +35775,8 @@
           <t>4327795539</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:33:00</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44283.48125</v>
       </c>
       <c r="I496" t="n">
         <v>10</v>
@@ -36818,10 +35844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:54</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44283.48118055556</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36889,10 +35913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:32</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44283.48092592593</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36964,10 +35986,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:30</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44283.48090277778</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -37043,10 +36063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:29</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44283.4808912037</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37114,10 +36132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:26</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44283.48085648148</v>
       </c>
       <c r="I501" t="n">
         <v>23</v>
@@ -37193,10 +36209,8 @@
           <t>4327786080</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:25</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44283.4808449074</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37264,10 +36278,8 @@
           <t>4327785316</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:19</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44283.48077546297</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37339,10 +36351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:18</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44283.48076388889</v>
       </c>
       <c r="I504" t="n">
         <v>2</v>
@@ -37414,10 +36424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:07</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44283.48063657407</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37493,10 +36501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:32:06</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44283.480625</v>
       </c>
       <c r="I506" t="n">
         <v>2</v>
@@ -37556,10 +36562,8 @@
           <t>4327785316</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:56</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44283.48050925926</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37631,10 +36635,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:54</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44283.48048611111</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37698,10 +36700,8 @@
           <t>4327779099</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:37</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44283.48028935185</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37777,10 +36777,8 @@
           <t>4327774814</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:36</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44283.48027777778</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37856,10 +36854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:16</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44283.4800462963</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37923,10 +36919,8 @@
           <t>4327774219</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:14</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44283.48002314815</v>
       </c>
       <c r="I512" t="n">
         <v>5</v>
@@ -37990,10 +36984,8 @@
           <t>4327778435</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:14</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44283.48002314815</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38053,10 +37045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:31:01</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44283.47987268519</v>
       </c>
       <c r="I514" t="n">
         <v>283</v>
@@ -38132,10 +37122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:59</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44283.47984953703</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38203,10 +37191,8 @@
           <t>4327782286</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:57</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44283.47982638889</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38274,10 +37260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:55</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44283.47980324074</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38353,10 +37337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:53</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44283.4797800926</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38432,10 +37414,8 @@
           <t>4327777877</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:53</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44283.4797800926</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38507,10 +37487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:50</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44283.47974537037</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38574,10 +37552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:49</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44283.4797337963</v>
       </c>
       <c r="I521" t="n">
         <v>28</v>
@@ -38645,10 +37621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:44</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44283.47967592593</v>
       </c>
       <c r="I522" t="n">
         <v>84</v>
@@ -38720,10 +37694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:30</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44283.47951388889</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38800,10 +37772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:25</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44283.47945601852</v>
       </c>
       <c r="I524" t="n">
         <v>43</v>
@@ -38871,10 +37841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:25</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44283.47945601852</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38950,10 +37918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:23</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44283.47943287037</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -39017,10 +37983,8 @@
           <t>4327781397</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:23</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44283.47943287037</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39096,10 +38060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:17</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44283.47936342593</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39167,10 +38129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:12</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44283.47930555556</v>
       </c>
       <c r="I529" t="n">
         <v>18</v>
@@ -39234,10 +38194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:11</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44283.47929398148</v>
       </c>
       <c r="I530" t="n">
         <v>4</v>
@@ -39305,10 +38263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:11</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44283.47929398148</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39384,10 +38340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:07</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44283.47924768519</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39451,10 +38405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:04</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44283.47921296296</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39518,10 +38470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:30:00</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44283.47916666666</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39597,10 +38547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:58</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44283.47914351852</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39672,10 +38620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:56</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44283.47912037037</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39735,10 +38681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:52</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44283.47907407407</v>
       </c>
       <c r="I537" t="n">
         <v>34</v>
@@ -39806,10 +38750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:52</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44283.47907407407</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39882,10 +38824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:51</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44283.4790625</v>
       </c>
       <c r="I539" t="n">
         <v>21</v>
@@ -39961,10 +38901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:49</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44283.47903935185</v>
       </c>
       <c r="I540" t="n">
         <v>6</v>
@@ -40032,10 +38970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:47</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44283.4790162037</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40103,10 +39039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:41</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44283.47894675926</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40174,10 +39108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:41</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44283.47894675926</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40253,10 +39185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:37</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44283.47890046296</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40328,10 +39258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:29</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44283.47880787037</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40399,10 +39327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:27</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44283.47878472223</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40470,10 +39396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:18</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44283.47868055556</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40541,10 +39465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:29:05</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44283.47853009259</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40616,10 +39538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-28 11:28:59</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44283.47846064815</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
